--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Nppc</t>
+  </si>
+  <si>
+    <t>Npr3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Nppc</t>
-  </si>
-  <si>
-    <t>Npr3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H2">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I2">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J2">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8502856666666666</v>
+        <v>0.1644733333333333</v>
       </c>
       <c r="N2">
-        <v>2.550857</v>
+        <v>0.49342</v>
       </c>
       <c r="O2">
-        <v>0.5207586312773204</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="P2">
-        <v>0.5207586312773205</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="Q2">
-        <v>0.01360428723811111</v>
+        <v>0.3124976337755556</v>
       </c>
       <c r="R2">
-        <v>0.122438585143</v>
+        <v>2.81247870398</v>
       </c>
       <c r="S2">
-        <v>0.00113867855247629</v>
+        <v>0.09824195688952017</v>
       </c>
       <c r="T2">
-        <v>0.00113867855247629</v>
+        <v>0.09824195688952019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.01599966666666667</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H3">
-        <v>0.047999</v>
+        <v>5.699969</v>
       </c>
       <c r="I3">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="J3">
-        <v>0.002186576436924975</v>
+        <v>0.4637017577727616</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,54 +620,54 @@
         <v>1.835521</v>
       </c>
       <c r="O3">
-        <v>0.3747224574489195</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="P3">
-        <v>0.3747224574489195</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="Q3">
-        <v>0.009789241386555554</v>
+        <v>1.162490310983222</v>
       </c>
       <c r="R3">
-        <v>0.088103172479</v>
+        <v>10.462412798849</v>
       </c>
       <c r="S3">
-        <v>0.000819359295844429</v>
+        <v>0.3654598008832414</v>
       </c>
       <c r="T3">
-        <v>0.0008193592958444291</v>
+        <v>0.3654598008832414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.01599966666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H4">
-        <v>0.047999</v>
+        <v>6.592348</v>
       </c>
       <c r="I4">
-        <v>0.002186576436924975</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J4">
-        <v>0.002186576436924975</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1706566666666667</v>
+        <v>0.1644733333333333</v>
       </c>
       <c r="N4">
-        <v>0.51197</v>
+        <v>0.49342</v>
       </c>
       <c r="O4">
-        <v>0.1045189112737601</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="P4">
-        <v>0.1045189112737601</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="Q4">
-        <v>0.002730449781111111</v>
+        <v>0.3614218166844445</v>
       </c>
       <c r="R4">
-        <v>0.02457404803</v>
+        <v>3.25279635016</v>
       </c>
       <c r="S4">
-        <v>0.0002285385886042559</v>
+        <v>0.113622577248528</v>
       </c>
       <c r="T4">
-        <v>0.0002285385886042559</v>
+        <v>0.113622577248528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -720,356 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.899989666666667</v>
+        <v>2.197449333333334</v>
       </c>
       <c r="H5">
-        <v>5.699969</v>
+        <v>6.592348</v>
       </c>
       <c r="I5">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="J5">
-        <v>0.2596599493031691</v>
+        <v>0.5362982422272383</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8502856666666666</v>
+        <v>0.6118403333333333</v>
       </c>
       <c r="N5">
-        <v>2.550857</v>
+        <v>1.835521</v>
       </c>
       <c r="O5">
-        <v>0.5207586312773204</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="P5">
-        <v>0.5207586312773205</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="Q5">
-        <v>1.615533980381444</v>
+        <v>1.344488132589778</v>
       </c>
       <c r="R5">
-        <v>14.539805823433</v>
+        <v>12.100393193308</v>
       </c>
       <c r="S5">
-        <v>0.1352201597966567</v>
+        <v>0.4226756649787103</v>
       </c>
       <c r="T5">
-        <v>0.1352201597966568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.899989666666667</v>
-      </c>
-      <c r="H6">
-        <v>5.699969</v>
-      </c>
-      <c r="I6">
-        <v>0.2596599493031691</v>
-      </c>
-      <c r="J6">
-        <v>0.2596599493031691</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.6118403333333333</v>
-      </c>
-      <c r="N6">
-        <v>1.835521</v>
-      </c>
-      <c r="O6">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="P6">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="Q6">
-        <v>1.162490310983222</v>
-      </c>
-      <c r="R6">
-        <v>10.462412798849</v>
-      </c>
-      <c r="S6">
-        <v>0.09730041430394537</v>
-      </c>
-      <c r="T6">
-        <v>0.09730041430394538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.899989666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.699969</v>
-      </c>
-      <c r="I7">
-        <v>0.2596599493031691</v>
-      </c>
-      <c r="J7">
-        <v>0.2596599493031691</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1706566666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.51197</v>
-      </c>
-      <c r="O7">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="P7">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="Q7">
-        <v>0.3242459032144445</v>
-      </c>
-      <c r="R7">
-        <v>2.91821312893</v>
-      </c>
-      <c r="S7">
-        <v>0.02713937520256697</v>
-      </c>
-      <c r="T7">
-        <v>0.02713937520256697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H8">
-        <v>16.2037</v>
-      </c>
-      <c r="I8">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J8">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.8502856666666666</v>
-      </c>
-      <c r="N8">
-        <v>2.550857</v>
-      </c>
-      <c r="O8">
-        <v>0.5207586312773204</v>
-      </c>
-      <c r="P8">
-        <v>0.5207586312773205</v>
-      </c>
-      <c r="Q8">
-        <v>4.592591285655556</v>
-      </c>
-      <c r="R8">
-        <v>41.3333215709</v>
-      </c>
-      <c r="S8">
-        <v>0.3843997929281874</v>
-      </c>
-      <c r="T8">
-        <v>0.3843997929281874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H9">
-        <v>16.2037</v>
-      </c>
-      <c r="I9">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J9">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6118403333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.835521</v>
-      </c>
-      <c r="O9">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="P9">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="Q9">
-        <v>3.304692403077778</v>
-      </c>
-      <c r="R9">
-        <v>29.7422316277</v>
-      </c>
-      <c r="S9">
-        <v>0.2766026838491297</v>
-      </c>
-      <c r="T9">
-        <v>0.2766026838491297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.401233333333334</v>
-      </c>
-      <c r="H10">
-        <v>16.2037</v>
-      </c>
-      <c r="I10">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="J10">
-        <v>0.738153474259906</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1706566666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.51197</v>
-      </c>
-      <c r="O10">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="P10">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="Q10">
-        <v>0.9217564765555557</v>
-      </c>
-      <c r="R10">
-        <v>8.295808289000002</v>
-      </c>
-      <c r="S10">
-        <v>0.07715099748258884</v>
-      </c>
-      <c r="T10">
-        <v>0.07715099748258886</v>
+        <v>0.4226756649787103</v>
       </c>
     </row>
   </sheetData>
